--- a/teaching/traditional_assets/database/data/uganda/uganda_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/uganda/uganda_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1335</v>
+        <v>0.108</v>
       </c>
       <c r="E2">
-        <v>0.182</v>
+        <v>0.139</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.006626535011039362</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.005045738500484565</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>87.3</v>
+        <v>70.3</v>
       </c>
       <c r="L2">
-        <v>0.3817227809357236</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="M2">
-        <v>31.05</v>
+        <v>26.5</v>
       </c>
       <c r="N2">
-        <v>0.06952530228392298</v>
+        <v>0.08214507129572225</v>
       </c>
       <c r="O2">
-        <v>0.3556701030927835</v>
+        <v>0.3769559032716928</v>
       </c>
       <c r="P2">
-        <v>31.05</v>
+        <v>26.5</v>
       </c>
       <c r="Q2">
-        <v>0.06952530228392298</v>
+        <v>0.08214507129572225</v>
       </c>
       <c r="R2">
-        <v>0.3556701030927835</v>
+        <v>0.3769559032716928</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,61 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>187.6</v>
+        <v>305</v>
       </c>
       <c r="V2">
-        <v>0.4200626959247649</v>
+        <v>0.9454432734035957</v>
+      </c>
+      <c r="W2">
+        <v>0.2731157731157731</v>
       </c>
       <c r="X2">
-        <v>0.06337113264874143</v>
+        <v>0.06055193301215452</v>
+      </c>
+      <c r="Y2">
+        <v>0.2125638401036186</v>
       </c>
       <c r="Z2">
-        <v>2.929893573756513</v>
+        <v>-1.633914771472731</v>
       </c>
       <c r="AA2">
-        <v>-0.03981176091306073</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.06310926088238568</v>
+        <v>0.05945695241610517</v>
       </c>
       <c r="AC2">
-        <v>-0.1029210217954464</v>
+        <v>-0.05945695241610517</v>
       </c>
       <c r="AD2">
-        <v>25.9</v>
+        <v>29.5</v>
       </c>
       <c r="AE2">
-        <v>8.657442785123509</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>34.55744278512351</v>
+        <v>29.5</v>
       </c>
       <c r="AG2">
-        <v>-153.0425572148765</v>
+        <v>-275.5</v>
       </c>
       <c r="AH2">
-        <v>0.07182148650780876</v>
+        <v>0.08378301618858279</v>
       </c>
       <c r="AI2">
-        <v>0.1148631805988091</v>
+        <v>0.08869512928442573</v>
       </c>
       <c r="AJ2">
-        <v>-0.5213376835650517</v>
+        <v>-5.849256900212311</v>
       </c>
       <c r="AK2">
-        <v>-1.351280352543672</v>
+        <v>-9.981884057971007</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>119.9074074074074</v>
-      </c>
-      <c r="AP2">
-        <v>-708.5303574762801</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stanbic Bank Holdings Limited (UGSE:SBU)</t>
+          <t>Stanbic Uganda Holdings Limited (UGSE:SBU)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.116</v>
+        <v>0.108</v>
       </c>
       <c r="E3">
-        <v>0.175</v>
+        <v>0.139</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.007621979232110144</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.005568004309171371</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>67.5</v>
+        <v>70.3</v>
       </c>
       <c r="L3">
-        <v>0.3454452405322416</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="N3">
-        <v>0.07184305056645483</v>
+        <v>0.08214507129572225</v>
       </c>
       <c r="O3">
-        <v>0.3851851851851852</v>
+        <v>0.3769559032716928</v>
       </c>
       <c r="P3">
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="Q3">
-        <v>0.07184305056645483</v>
+        <v>0.08214507129572225</v>
       </c>
       <c r="R3">
-        <v>0.3851851851851852</v>
+        <v>0.3769559032716928</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -761,189 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>187.6</v>
+        <v>305</v>
       </c>
       <c r="V3">
-        <v>0.5183752417794971</v>
+        <v>0.9454432734035957</v>
       </c>
       <c r="W3">
-        <v>0.3132250580046403</v>
+        <v>0.2731157731157731</v>
       </c>
       <c r="X3">
-        <v>0.06472950067184108</v>
+        <v>0.06055193301215452</v>
       </c>
       <c r="Y3">
-        <v>0.2484955573327993</v>
+        <v>0.2125638401036186</v>
       </c>
       <c r="Z3">
-        <v>2.513452446746584</v>
+        <v>-1.633914771472731</v>
       </c>
       <c r="AA3">
-        <v>-0.01399491405438231</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.06421766032120564</v>
+        <v>0.05945695241610517</v>
       </c>
       <c r="AC3">
-        <v>-0.07821257437558796</v>
+        <v>-0.05945695241610517</v>
       </c>
       <c r="AD3">
-        <v>25.9</v>
+        <v>29.5</v>
       </c>
       <c r="AE3">
-        <v>8.34167370977161</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>34.24167370977161</v>
+        <v>29.5</v>
       </c>
       <c r="AG3">
-        <v>-153.3583262902284</v>
+        <v>-275.5</v>
       </c>
       <c r="AH3">
-        <v>0.08643794880025261</v>
+        <v>0.08378301618858279</v>
       </c>
       <c r="AI3">
-        <v>0.1139331969743346</v>
+        <v>0.08869512928442573</v>
       </c>
       <c r="AJ3">
-        <v>-0.7353845567752461</v>
+        <v>-5.849256900212311</v>
       </c>
       <c r="AK3">
-        <v>-1.357854202553401</v>
+        <v>-9.981884057971007</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>144.6927374301676</v>
-      </c>
-      <c r="AP3">
-        <v>-856.7504262023932</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bank of Baroda (Uganda) Limited (UGSE:BOBU)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.151</v>
-      </c>
-      <c r="E4">
-        <v>0.189</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>-0.0007853998519633521</v>
-      </c>
-      <c r="J4">
-        <v>-0.0006223268706520858</v>
-      </c>
-      <c r="K4">
-        <v>19.8</v>
-      </c>
-      <c r="L4">
-        <v>0.5945945945945946</v>
-      </c>
-      <c r="M4">
-        <v>5.05</v>
-      </c>
-      <c r="N4">
-        <v>0.05962219598583234</v>
-      </c>
-      <c r="O4">
-        <v>0.255050505050505</v>
-      </c>
-      <c r="P4">
-        <v>5.05</v>
-      </c>
-      <c r="Q4">
-        <v>0.05962219598583234</v>
-      </c>
-      <c r="R4">
-        <v>0.255050505050505</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.06201276462564179</v>
-      </c>
-      <c r="Z4">
-        <v>105.4568119531336</v>
-      </c>
-      <c r="AA4">
-        <v>-0.06562860777173914</v>
-      </c>
-      <c r="AB4">
-        <v>0.06200086144356571</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1276294692153049</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0.3157690753518981</v>
-      </c>
-      <c r="AF4">
-        <v>0.3157690753518981</v>
-      </c>
-      <c r="AG4">
-        <v>0.3157690753518981</v>
-      </c>
-      <c r="AH4">
-        <v>0.003714241237669955</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>0.003714241237669955</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>8.534299333835083</v>
       </c>
     </row>
   </sheetData>
